--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Robo1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H2">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I2">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J2">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N2">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O2">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P2">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q2">
-        <v>0.0489653521</v>
+        <v>0.014342718814</v>
       </c>
       <c r="R2">
-        <v>0.4406881689</v>
+        <v>0.129084469326</v>
       </c>
       <c r="S2">
-        <v>0.001334366335541345</v>
+        <v>0.0002552465119638409</v>
       </c>
       <c r="T2">
-        <v>0.001467538341822525</v>
+        <v>0.0002846906736478663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H3">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I3">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J3">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>65.97693</v>
       </c>
       <c r="O3">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P3">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q3">
-        <v>7.484093054550001</v>
+        <v>1.85925187971</v>
       </c>
       <c r="R3">
-        <v>67.35683749095</v>
+        <v>16.73326691739</v>
       </c>
       <c r="S3">
-        <v>0.2039507814353145</v>
+        <v>0.03308769859553855</v>
       </c>
       <c r="T3">
-        <v>0.2243054127107928</v>
+        <v>0.03690455603152713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H4">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I4">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J4">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N4">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O4">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P4">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q4">
-        <v>0.005281193295</v>
+        <v>0.004032408437666667</v>
       </c>
       <c r="R4">
-        <v>0.047530739655</v>
+        <v>0.03629167593900001</v>
       </c>
       <c r="S4">
-        <v>0.000143919041569287</v>
+        <v>7.176172118241025E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001582824041612179</v>
+        <v>8.003985084209454E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H5">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I5">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J5">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N5">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O5">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P5">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q5">
-        <v>1.319213091105</v>
+        <v>0.4758512346745001</v>
       </c>
       <c r="R5">
-        <v>7.91527854663</v>
+        <v>2.855107408047</v>
       </c>
       <c r="S5">
-        <v>0.03595018646207079</v>
+        <v>0.00846836429267484</v>
       </c>
       <c r="T5">
-        <v>0.02635871705469059</v>
+        <v>0.00629682606728737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H6">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I6">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J6">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N6">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O6">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P6">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q6">
-        <v>0.06805580337333333</v>
+        <v>0.05773410447000001</v>
       </c>
       <c r="R6">
-        <v>0.61250223036</v>
+        <v>0.51960694023</v>
       </c>
       <c r="S6">
-        <v>0.001854604716701243</v>
+        <v>0.001027450163280004</v>
       </c>
       <c r="T6">
-        <v>0.002039697389083034</v>
+        <v>0.001145972483123421</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H7">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I7">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J7">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,22 +874,22 @@
         <v>65.97693</v>
       </c>
       <c r="O7">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P7">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q7">
-        <v>10.40196676842</v>
+        <v>7.484093054550001</v>
       </c>
       <c r="R7">
-        <v>93.61770091577999</v>
+        <v>67.35683749095</v>
       </c>
       <c r="S7">
-        <v>0.2834664448210808</v>
+        <v>0.1331887400261973</v>
       </c>
       <c r="T7">
-        <v>0.3117568731425521</v>
+        <v>0.1485528316474709</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H8">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I8">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J8">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N8">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O8">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P8">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q8">
-        <v>0.007340207658</v>
+        <v>0.016231754455</v>
       </c>
       <c r="R8">
-        <v>0.066061868922</v>
+        <v>0.146085790095</v>
       </c>
       <c r="S8">
-        <v>0.0002000297266261868</v>
+        <v>0.0002888642496182931</v>
       </c>
       <c r="T8">
-        <v>0.0002199930300318278</v>
+        <v>0.000322186411809879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H9">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I9">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J9">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N9">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O9">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P9">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q9">
-        <v>1.833543574902</v>
+        <v>1.9154558665725</v>
       </c>
       <c r="R9">
-        <v>11.001261449412</v>
+        <v>11.492735199435</v>
       </c>
       <c r="S9">
-        <v>0.04996632753912863</v>
+        <v>0.03408791841377214</v>
       </c>
       <c r="T9">
-        <v>0.03663536742028964</v>
+        <v>0.02534677132785546</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H10">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I10">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J10">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N10">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O10">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P10">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q10">
-        <v>0.02631859797333334</v>
+        <v>0.07524273657799999</v>
       </c>
       <c r="R10">
-        <v>0.15791158784</v>
+        <v>0.677184629202</v>
       </c>
       <c r="S10">
-        <v>0.0007172143082427191</v>
+        <v>0.001339038038129986</v>
       </c>
       <c r="T10">
-        <v>0.0005258623356096086</v>
+        <v>0.001493503821785219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H11">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I11">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J11">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>65.97693</v>
       </c>
       <c r="O11">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P11">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q11">
-        <v>4.02265740672</v>
+        <v>9.753743431169998</v>
       </c>
       <c r="R11">
-        <v>24.13594444032</v>
+        <v>87.78369088052999</v>
       </c>
       <c r="S11">
-        <v>0.1096223838435998</v>
+        <v>0.1735799900759574</v>
       </c>
       <c r="T11">
-        <v>0.08037525484444158</v>
+        <v>0.1936034460424468</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H12">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I12">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J12">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N12">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O12">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P12">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q12">
-        <v>0.002838611328</v>
+        <v>0.02115424905033333</v>
       </c>
       <c r="R12">
-        <v>0.017031667968</v>
+        <v>0.190388241453</v>
       </c>
       <c r="S12">
-        <v>7.735566545164314E-05</v>
+        <v>0.0003764661605191234</v>
       </c>
       <c r="T12">
-        <v>5.671726071208023E-05</v>
+        <v>0.000419893709885438</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H13">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I13">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J13">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N13">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O13">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P13">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q13">
-        <v>0.709069525632</v>
+        <v>2.4963432362615</v>
       </c>
       <c r="R13">
-        <v>2.836278102528</v>
+        <v>14.978059417569</v>
       </c>
       <c r="S13">
-        <v>0.01932302054377777</v>
+        <v>0.04442553130849338</v>
       </c>
       <c r="T13">
-        <v>0.009445106897063058</v>
+        <v>0.03303351555605468</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4136363333333333</v>
+        <v>0.2339355</v>
       </c>
       <c r="H14">
-        <v>1.240909</v>
+        <v>0.467871</v>
       </c>
       <c r="I14">
-        <v>0.2933933655608953</v>
+        <v>0.1158956859312148</v>
       </c>
       <c r="J14">
-        <v>0.3066551771687498</v>
+        <v>0.08036858123741962</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N14">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O14">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P14">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q14">
-        <v>0.05951675321555555</v>
+        <v>0.039688093317</v>
       </c>
       <c r="R14">
-        <v>0.53565077894</v>
+        <v>0.238128559902</v>
       </c>
       <c r="S14">
-        <v>0.001621905050930073</v>
+        <v>0.0007062989602620868</v>
       </c>
       <c r="T14">
-        <v>0.001783773904989787</v>
+        <v>0.0005251830873789081</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4136363333333333</v>
+        <v>0.2339355</v>
       </c>
       <c r="H15">
-        <v>1.240909</v>
+        <v>0.467871</v>
       </c>
       <c r="I15">
-        <v>0.2933933655608953</v>
+        <v>0.1158956859312148</v>
       </c>
       <c r="J15">
-        <v>0.3066551771687498</v>
+        <v>0.08036858123741962</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>65.97693</v>
       </c>
       <c r="O15">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P15">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q15">
-        <v>9.09681846993</v>
+        <v>5.144782036005</v>
       </c>
       <c r="R15">
-        <v>81.87136622937</v>
+        <v>30.86869221603</v>
       </c>
       <c r="S15">
-        <v>0.2478995413331322</v>
+        <v>0.09155779225223983</v>
       </c>
       <c r="T15">
-        <v>0.2726403328205945</v>
+        <v>0.06807967548300678</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4136363333333333</v>
+        <v>0.2339355</v>
       </c>
       <c r="H16">
-        <v>1.240909</v>
+        <v>0.467871</v>
       </c>
       <c r="I16">
-        <v>0.2933933655608953</v>
+        <v>0.1158956859312148</v>
       </c>
       <c r="J16">
-        <v>0.3066551771687498</v>
+        <v>0.08036858123741962</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N16">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O16">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P16">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q16">
-        <v>0.006419222257</v>
+        <v>0.0111581775005</v>
       </c>
       <c r="R16">
-        <v>0.05777300031300001</v>
+        <v>0.06694906500299999</v>
       </c>
       <c r="S16">
-        <v>0.0001749317366819983</v>
+        <v>0.0001985736403126025</v>
       </c>
       <c r="T16">
-        <v>0.0001923902184464846</v>
+        <v>0.0001476535056100653</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4136363333333333</v>
+        <v>0.2339355</v>
       </c>
       <c r="H17">
-        <v>1.240909</v>
+        <v>0.467871</v>
       </c>
       <c r="I17">
-        <v>0.2933933655608953</v>
+        <v>0.1158956859312148</v>
       </c>
       <c r="J17">
-        <v>0.3066551771687498</v>
+        <v>0.08036858123741962</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,276 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N17">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O17">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P17">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q17">
-        <v>1.603486477983</v>
+        <v>1.31673976542975</v>
       </c>
       <c r="R17">
-        <v>9.620918867898</v>
+        <v>5.266959061719</v>
       </c>
       <c r="S17">
-        <v>0.04369698744015104</v>
+        <v>0.02343302107840024</v>
       </c>
       <c r="T17">
-        <v>0.03203868022471905</v>
+        <v>0.01161606916142388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H18">
+        <v>2.748636</v>
+      </c>
+      <c r="I18">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J18">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.169654</v>
+      </c>
+      <c r="N18">
+        <v>0.508962</v>
+      </c>
+      <c r="O18">
+        <v>0.006094264463659866</v>
+      </c>
+      <c r="P18">
+        <v>0.006534681579452628</v>
+      </c>
+      <c r="Q18">
+        <v>0.155439030648</v>
+      </c>
+      <c r="R18">
+        <v>1.398951275832</v>
+      </c>
+      <c r="S18">
+        <v>0.002766230790023947</v>
+      </c>
+      <c r="T18">
+        <v>0.003085331513517214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H19">
+        <v>2.748636</v>
+      </c>
+      <c r="I19">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J19">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.99231</v>
+      </c>
+      <c r="N19">
+        <v>65.97693</v>
+      </c>
+      <c r="O19">
+        <v>0.7900017288527916</v>
+      </c>
+      <c r="P19">
+        <v>0.8470931604713817</v>
+      </c>
+      <c r="Q19">
+        <v>20.14961832972</v>
+      </c>
+      <c r="R19">
+        <v>181.34656496748</v>
+      </c>
+      <c r="S19">
+        <v>0.3585875079028585</v>
+      </c>
+      <c r="T19">
+        <v>0.39995265126693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.748636</v>
+      </c>
+      <c r="I20">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J20">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.143093</v>
+      </c>
+      <c r="O20">
+        <v>0.001713382501834088</v>
+      </c>
+      <c r="P20">
+        <v>0.001837204332049573</v>
+      </c>
+      <c r="Q20">
+        <v>0.043701174572</v>
+      </c>
+      <c r="R20">
+        <v>0.393310571148</v>
+      </c>
+      <c r="S20">
+        <v>0.0007777167302016589</v>
+      </c>
+      <c r="T20">
+        <v>0.0008674308539020961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H21">
+        <v>2.748636</v>
+      </c>
+      <c r="I21">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J21">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.6286445</v>
+      </c>
+      <c r="N21">
+        <v>11.257289</v>
+      </c>
+      <c r="O21">
+        <v>0.2021906241817143</v>
+      </c>
+      <c r="P21">
+        <v>0.1445349536171162</v>
+      </c>
+      <c r="Q21">
+        <v>5.157031634633999</v>
+      </c>
+      <c r="R21">
+        <v>30.942189807804</v>
+      </c>
+      <c r="S21">
+        <v>0.09177578908837368</v>
+      </c>
+      <c r="T21">
+        <v>0.0682417715044948</v>
       </c>
     </row>
   </sheetData>
